--- a/Input Files/VBAP.xlsx
+++ b/Input Files/VBAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\OTC-OM-ASIA-GC CSO SAMBC Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E58040E-96D4-49C8-B3D0-25D858BCB0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DDC1FA-E983-4544-98F7-5BCF62A56D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="21600" windowHeight="11410" xr2:uid="{2D8FBFA6-E5E2-45F2-94D0-D0382F2738B5}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{ABFCF53C-5390-490B-BBC0-A0E9E046241A}"/>
   </bookViews>
   <sheets>
     <sheet name="VBAP" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BF8611-E9E7-4F90-8578-2E57C25754AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9B11D-2E48-4D9E-9F93-1B5766BF46E6}">
   <sheetPr>
     <tabColor indexed="9"/>
   </sheetPr>
@@ -387,7 +387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
